--- a/HR_Data.xlsx
+++ b/HR_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17276\Documents\Portfolio Projects\Automated-Coverletter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572AEAF5-DE25-4145-AFE4-0345C511BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34977E16-A883-4D95-99B7-5FC4BB05D483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B39F8F04-CBD1-43AB-A15F-8579BFFD6935}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -54,16 +54,120 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>Julia Roberts</t>
+  </si>
+  <si>
+    <t>Tonya Cruz</t>
+  </si>
+  <si>
+    <t>Jamie Davidson</t>
+  </si>
+  <si>
+    <t>Shelia Johnson</t>
+  </si>
+  <si>
+    <t>Boraz Dolan</t>
+  </si>
+  <si>
+    <t>jroberts@google.com</t>
+  </si>
+  <si>
+    <t>tcruz@boeing.com</t>
+  </si>
+  <si>
+    <t>jdavidson@jpmc.com</t>
+  </si>
+  <si>
+    <t>sjohnson@starbucks.com</t>
+  </si>
+  <si>
+    <t>bdolan@cisco.com</t>
+  </si>
+  <si>
+    <t>555 Main Street Sunnyvale, CA 90210</t>
+  </si>
+  <si>
+    <t>558 Main Street Sunnyvale, CA 90210</t>
+  </si>
+  <si>
+    <t>559 Main Street Sunnyvale, CA 90210</t>
+  </si>
+  <si>
+    <t>556 Cooper Street Portland, OR 80412</t>
+  </si>
+  <si>
+    <t>557 Tower Plaza        New York, NY 26314</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Software Developer Engineer in Test (SDET) I</t>
+  </si>
+  <si>
+    <t>QA Automation Engineer</t>
+  </si>
+  <si>
+    <t>Scripting Engineer</t>
+  </si>
+  <si>
+    <t>Mobile Testing Engineer</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>JP Morgan Chase</t>
+  </si>
+  <si>
+    <t>CISCO</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>234-567-8900</t>
+  </si>
+  <si>
+    <t>456-789-0123</t>
+  </si>
+  <si>
+    <t>567-890-1234</t>
+  </si>
+  <si>
+    <t>789-012-3456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +190,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,35 +518,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF9AB4-2CE2-4E26-A785-44CB501C5AA1}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{60B76C41-3C5F-4A5D-A549-61AD3EC58AEC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A50AB1EF-DFD3-4DDB-AA39-806A43286696}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{3A23FE9F-697D-4D12-93D1-DC74DE604F5B}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{F55F35A7-646E-4A8A-BD13-87DD4730E2B9}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{E32BD67D-5127-4AB5-B81A-1B4F97869184}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>